--- a/Week5/customer_data/Metadata2017_2020.xlsx
+++ b/Week5/customer_data/Metadata2017_2020.xlsx
@@ -16,84 +16,92 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
+    <t>pdf_downloaded</t>
+  </si>
+  <si>
     <t>BRnum</t>
   </si>
   <si>
-    <t>pdf_downloaded</t>
-  </si>
-  <si>
     <t>BR50041</t>
   </si>
   <si>
+    <t>BR50042</t>
+  </si>
+  <si>
+    <t>BR50043</t>
+  </si>
+  <si>
+    <t>BR50044</t>
+  </si>
+  <si>
+    <t>BR50045</t>
+  </si>
+  <si>
+    <t>BR50047</t>
+  </si>
+  <si>
+    <t>BR50048</t>
+  </si>
+  <si>
+    <t>BR50049</t>
+  </si>
+  <si>
+    <t>BR50050</t>
+  </si>
+  <si>
+    <t>BR50051</t>
+  </si>
+  <si>
+    <t>BR50052</t>
+  </si>
+  <si>
+    <t>BR50053</t>
+  </si>
+  <si>
+    <t>BR50054</t>
+  </si>
+  <si>
+    <t>BR50055</t>
+  </si>
+  <si>
+    <t>BR50056</t>
+  </si>
+  <si>
+    <t>BR50057</t>
+  </si>
+  <si>
+    <t>BR50058</t>
+  </si>
+  <si>
+    <t>BR50059</t>
+  </si>
+  <si>
+    <t>BR50060</t>
+  </si>
+  <si>
+    <t>BR50061</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>BR50042</t>
-  </si>
-  <si>
-    <t>BR50043</t>
-  </si>
-  <si>
-    <t>BR50044</t>
-  </si>
-  <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>BR50050</t>
-  </si>
-  <si>
-    <t>BR50055</t>
-  </si>
-  <si>
-    <t>BR50056</t>
-  </si>
-  <si>
-    <t>BR50061</t>
-  </si>
-  <si>
-    <t>BR50062</t>
-  </si>
-  <si>
-    <t>BR50065</t>
-  </si>
-  <si>
-    <t>BR50066</t>
-  </si>
-  <si>
-    <t>BR50067</t>
-  </si>
-  <si>
-    <t>BR50068</t>
-  </si>
-  <si>
-    <t>BR50069</t>
-  </si>
-  <si>
-    <t>BR50071</t>
-  </si>
-  <si>
-    <t>BR50072</t>
-  </si>
-  <si>
-    <t>BR50073</t>
-  </si>
-  <si>
-    <t>BR50074</t>
-  </si>
-  <si>
-    <t>BR50075</t>
-  </si>
-  <si>
-    <t>BR50076</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -109,12 +117,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -123,29 +146,16 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf/>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:B21" totalsRowShown="0">
-  <autoFilter ref="A1:B21"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="BRnum" dataDxfId="0"/>
-    <tableColumn id="2" name="pdf_downloaded" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,177 +450,174 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/Week5/customer_data/Metadata2017_2020.xlsx
+++ b/Week5/customer_data/Metadata2017_2020.xlsx
@@ -16,15 +16,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
+    <t>BRnum</t>
+  </si>
+  <si>
     <t>pdf_downloaded</t>
   </si>
   <si>
-    <t>BRnum</t>
-  </si>
-  <si>
     <t>BR50041</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>BR50042</t>
   </si>
   <si>
@@ -37,6 +40,12 @@
     <t>BR50045</t>
   </si>
   <si>
+    <t>BR50046</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>BR50047</t>
   </si>
   <si>
@@ -77,31 +86,14 @@
   </si>
   <si>
     <t>BR50060</t>
-  </si>
-  <si>
-    <t>BR50061</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,27 +109,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -146,16 +123,29 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf/>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:B21" totalsRowShown="0">
+  <autoFilter ref="A1:B21"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="BRnum" dataDxfId="0"/>
+    <tableColumn id="2" name="pdf_downloaded" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,174 +440,177 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
         <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>